--- a/data/metadata/Informe-03-02010301-030088-A-TC-TP.xlsx
+++ b/data/metadata/Informe-03-02010301-030088-A-TC-TP.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
   <si>
     <t>tipo-de-estudios-realizados</t>
   </si>
@@ -37,7 +37,7 @@
     <t>comarca-nombre</t>
   </si>
   <si>
-    <t>iaest-dimension:tipo-de-estudios-realizados</t>
+    <t>iaest-measure:tipo-de-estudios-realizados</t>
   </si>
   <si>
     <t>null</t>
@@ -46,25 +46,22 @@
     <t>sdmx-dimension:refArea</t>
   </si>
   <si>
-    <t>iaest-dimension:sexo</t>
+    <t>iaest-measure:sexo</t>
+  </si>
+  <si>
+    <t>medida</t>
   </si>
   <si>
     <t>dim</t>
   </si>
   <si>
-    <t>skos:Concept</t>
+    <t>xsd:int</t>
   </si>
   <si>
     <t>URI-Provincia</t>
   </si>
   <si>
     <t>URI-comarca</t>
-  </si>
-  <si>
-    <t>mapping-tipo-de-estudios-realizados.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-sexo.xlsx</t>
   </si>
 </sst>
 </file>
@@ -187,7 +184,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>9</v>
@@ -199,12 +196,12 @@
         <v>9</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
@@ -213,27 +210,19 @@
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="G4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata/Informe-03-02010301-030088-A-TC-TP.xlsx
+++ b/data/metadata/Informe-03-02010301-030088-A-TC-TP.xlsx
@@ -13,55 +13,55 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
   <si>
-    <t>tipo-de-estudios-realizados</t>
-  </si>
-  <si>
-    <t>sexo-codigo</t>
-  </si>
-  <si>
-    <t>comarca-codigo</t>
-  </si>
-  <si>
-    <t>provincia-nombre</t>
-  </si>
-  <si>
-    <t>tipo-de-estudios-realizados-codigo</t>
-  </si>
-  <si>
-    <t>sexo</t>
-  </si>
-  <si>
-    <t>provincia-codigo</t>
-  </si>
-  <si>
-    <t>comarca-nombre</t>
+    <t>Provincia codigo</t>
+  </si>
+  <si>
+    <t>Comarca nombre</t>
+  </si>
+  <si>
+    <t>Tipo de estudios realizados</t>
+  </si>
+  <si>
+    <t>Tipo de estudios realizados, código</t>
+  </si>
+  <si>
+    <t>Sexo, código</t>
+  </si>
+  <si>
+    <t>Provincia nombre</t>
+  </si>
+  <si>
+    <t>Sexo</t>
+  </si>
+  <si>
+    <t>Comarca codigo</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>sdmx-dimension:refArea</t>
   </si>
   <si>
     <t>iaest-measure:tipo-de-estudios-realizados</t>
   </si>
   <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>sdmx-dimension:refArea</t>
-  </si>
-  <si>
     <t>iaest-measure:sexo</t>
   </si>
   <si>
+    <t>dim</t>
+  </si>
+  <si>
     <t>medida</t>
   </si>
   <si>
-    <t>dim</t>
-  </si>
-  <si>
-    <t>xsd:int</t>
+    <t>URI-comarca</t>
+  </si>
+  <si>
+    <t>xsd:string</t>
   </si>
   <si>
     <t>URI-Provincia</t>
-  </si>
-  <si>
-    <t>URI-comarca</t>
   </si>
 </sst>
 </file>
@@ -155,74 +155,74 @@
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
